--- a/templates/Rework Work Order.xlsx
+++ b/templates/Rework Work Order.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789CF22E-2C06-403F-BE6E-A8D4AC32BEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86652CE8-6995-4ABB-87E0-CEE67E2112C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create WO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="82">
   <si>
     <t>Site</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>Pro-ReworkParent4 (NO Track)</t>
+  </si>
+  <si>
+    <t>8/16/2026</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1851,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H3" sqref="H3:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1914,7 +1917,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
@@ -1940,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I3" t="s">
         <v>38</v>
@@ -1966,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
         <v>38</v>
@@ -1992,7 +1995,7 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I5" t="s">
         <v>38</v>
@@ -2018,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
         <v>38</v>
@@ -2044,7 +2047,7 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I7" t="s">
         <v>38</v>
@@ -2070,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
